--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.011892</v>
+        <v>15.665929</v>
       </c>
       <c r="H2">
-        <v>66.035676</v>
+        <v>46.997787</v>
       </c>
       <c r="I2">
-        <v>0.6552976459252341</v>
+        <v>0.5304105216372652</v>
       </c>
       <c r="J2">
-        <v>0.655297645925234</v>
+        <v>0.5304105216372653</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.12964566666667</v>
+        <v>37.641477</v>
       </c>
       <c r="N2">
-        <v>108.388937</v>
+        <v>112.924431</v>
       </c>
       <c r="O2">
-        <v>0.5918749801436802</v>
+        <v>0.4464054516632745</v>
       </c>
       <c r="P2">
-        <v>0.5918749801436801</v>
+        <v>0.4464054516632746</v>
       </c>
       <c r="Q2">
-        <v>795.2818584129346</v>
+        <v>589.6887061371331</v>
       </c>
       <c r="R2">
-        <v>7157.536725716412</v>
+        <v>5307.198355234197</v>
       </c>
       <c r="S2">
-        <v>0.3878542811701983</v>
+        <v>0.2367781484784364</v>
       </c>
       <c r="T2">
-        <v>0.3878542811701982</v>
+        <v>0.2367781484784365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.011892</v>
+        <v>15.665929</v>
       </c>
       <c r="H3">
-        <v>66.035676</v>
+        <v>46.997787</v>
       </c>
       <c r="I3">
-        <v>0.6552976459252341</v>
+        <v>0.5304105216372652</v>
       </c>
       <c r="J3">
-        <v>0.655297645925234</v>
+        <v>0.5304105216372653</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>0.332188</v>
       </c>
       <c r="N3">
-        <v>0.9965639999999999</v>
+        <v>0.996564</v>
       </c>
       <c r="O3">
-        <v>0.005441895769417007</v>
+        <v>0.003939551420288843</v>
       </c>
       <c r="P3">
-        <v>0.005441895769417006</v>
+        <v>0.003939551420288844</v>
       </c>
       <c r="Q3">
-        <v>7.312086379696</v>
+        <v>5.204033622652</v>
       </c>
       <c r="R3">
-        <v>65.80877741726398</v>
+        <v>46.83630260386801</v>
       </c>
       <c r="S3">
-        <v>0.003566061487069455</v>
+        <v>0.002089579523852234</v>
       </c>
       <c r="T3">
-        <v>0.003566061487069454</v>
+        <v>0.002089579523852235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.011892</v>
+        <v>15.665929</v>
       </c>
       <c r="H4">
-        <v>66.035676</v>
+        <v>46.997787</v>
       </c>
       <c r="I4">
-        <v>0.6552976459252341</v>
+        <v>0.5304105216372652</v>
       </c>
       <c r="J4">
-        <v>0.655297645925234</v>
+        <v>0.5304105216372653</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.58086433333333</v>
+        <v>46.34761033333334</v>
       </c>
       <c r="N4">
-        <v>73.742593</v>
+        <v>139.042831</v>
       </c>
       <c r="O4">
-        <v>0.4026831240869028</v>
+        <v>0.5496549969164365</v>
       </c>
       <c r="P4">
-        <v>0.4026831240869028</v>
+        <v>0.5496549969164366</v>
       </c>
       <c r="Q4">
-        <v>541.0713309719854</v>
+        <v>726.0783728016664</v>
       </c>
       <c r="R4">
-        <v>4869.641978747868</v>
+        <v>6534.705355214997</v>
       </c>
       <c r="S4">
-        <v>0.2638773032679663</v>
+        <v>0.2915427936349765</v>
       </c>
       <c r="T4">
-        <v>0.2638773032679663</v>
+        <v>0.2915427936349766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.718769</v>
       </c>
       <c r="I5">
-        <v>0.0170560119591911</v>
+        <v>0.01939778913130443</v>
       </c>
       <c r="J5">
-        <v>0.0170560119591911</v>
+        <v>0.01939778913130443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.12964566666667</v>
+        <v>37.641477</v>
       </c>
       <c r="N5">
-        <v>108.388937</v>
+        <v>112.924431</v>
       </c>
       <c r="O5">
-        <v>0.5918749801436802</v>
+        <v>0.4464054516632745</v>
       </c>
       <c r="P5">
-        <v>0.5918749801436801</v>
+        <v>0.4464054516632746</v>
       </c>
       <c r="Q5">
-        <v>20.69950498428367</v>
+        <v>21.565667927271</v>
       </c>
       <c r="R5">
-        <v>186.295544858553</v>
+        <v>194.091011345439</v>
       </c>
       <c r="S5">
-        <v>0.0100950267396766</v>
+        <v>0.008659278818428911</v>
       </c>
       <c r="T5">
-        <v>0.0100950267396766</v>
+        <v>0.008659278818428913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.718769</v>
       </c>
       <c r="I6">
-        <v>0.0170560119591911</v>
+        <v>0.01939778913130443</v>
       </c>
       <c r="J6">
-        <v>0.0170560119591911</v>
+        <v>0.01939778913130443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>0.332188</v>
       </c>
       <c r="N6">
-        <v>0.9965639999999999</v>
+        <v>0.996564</v>
       </c>
       <c r="O6">
-        <v>0.005441895769417007</v>
+        <v>0.003939551420288843</v>
       </c>
       <c r="P6">
-        <v>0.005441895769417006</v>
+        <v>0.003939551420288844</v>
       </c>
       <c r="Q6">
         <v>0.190318145524</v>
@@ -818,10 +818,10 @@
         <v>1.712863309716</v>
       </c>
       <c r="S6">
-        <v>9.281703932384791E-05</v>
+        <v>7.641858772269386E-05</v>
       </c>
       <c r="T6">
-        <v>9.281703932384792E-05</v>
+        <v>7.641858772269388E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.718769</v>
       </c>
       <c r="I7">
-        <v>0.0170560119591911</v>
+        <v>0.01939778913130443</v>
       </c>
       <c r="J7">
-        <v>0.0170560119591911</v>
+        <v>0.01939778913130443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.58086433333333</v>
+        <v>46.34761033333334</v>
       </c>
       <c r="N7">
-        <v>73.742593</v>
+        <v>139.042831</v>
       </c>
       <c r="O7">
-        <v>0.4026831240869028</v>
+        <v>0.5496549969164365</v>
       </c>
       <c r="P7">
-        <v>0.4026831240869028</v>
+        <v>0.5496549969164366</v>
       </c>
       <c r="Q7">
-        <v>14.08294253644633</v>
+        <v>26.55361195500433</v>
       </c>
       <c r="R7">
-        <v>126.746482828017</v>
+        <v>238.982507595039</v>
       </c>
       <c r="S7">
-        <v>0.006868168180190647</v>
+        <v>0.01066209172515282</v>
       </c>
       <c r="T7">
-        <v>0.006868168180190648</v>
+        <v>0.01066209172515283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.00586266666667</v>
+        <v>13.29662733333333</v>
       </c>
       <c r="H8">
-        <v>33.017588</v>
+        <v>39.889882</v>
       </c>
       <c r="I8">
-        <v>0.3276463421155749</v>
+        <v>0.4501916892314303</v>
       </c>
       <c r="J8">
-        <v>0.3276463421155749</v>
+        <v>0.4501916892314304</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.12964566666667</v>
+        <v>37.641477</v>
       </c>
       <c r="N8">
-        <v>108.388937</v>
+        <v>112.924431</v>
       </c>
       <c r="O8">
-        <v>0.5918749801436802</v>
+        <v>0.4464054516632745</v>
       </c>
       <c r="P8">
-        <v>0.5918749801436801</v>
+        <v>0.4464054516632746</v>
       </c>
       <c r="Q8">
-        <v>397.6379184026617</v>
+        <v>500.5046919452381</v>
       </c>
       <c r="R8">
-        <v>3578.741265623956</v>
+        <v>4504.542227507142</v>
       </c>
       <c r="S8">
-        <v>0.1939256722338053</v>
+        <v>0.2009680243664092</v>
       </c>
       <c r="T8">
-        <v>0.1939256722338053</v>
+        <v>0.2009680243664092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.00586266666667</v>
+        <v>13.29662733333333</v>
       </c>
       <c r="H9">
-        <v>33.017588</v>
+        <v>39.889882</v>
       </c>
       <c r="I9">
-        <v>0.3276463421155749</v>
+        <v>0.4501916892314303</v>
       </c>
       <c r="J9">
-        <v>0.3276463421155749</v>
+        <v>0.4501916892314304</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>0.332188</v>
       </c>
       <c r="N9">
-        <v>0.9965639999999999</v>
+        <v>0.996564</v>
       </c>
       <c r="O9">
-        <v>0.005441895769417007</v>
+        <v>0.003939551420288843</v>
       </c>
       <c r="P9">
-        <v>0.005441895769417006</v>
+        <v>0.003939551420288844</v>
       </c>
       <c r="Q9">
-        <v>3.656015507514666</v>
+        <v>4.416980040605333</v>
       </c>
       <c r="R9">
-        <v>32.90413956763199</v>
+        <v>39.752820365448</v>
       </c>
       <c r="S9">
-        <v>0.001783017243023704</v>
+        <v>0.001773553308713915</v>
       </c>
       <c r="T9">
-        <v>0.001783017243023704</v>
+        <v>0.001773553308713916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.00586266666667</v>
+        <v>13.29662733333333</v>
       </c>
       <c r="H10">
-        <v>33.017588</v>
+        <v>39.889882</v>
       </c>
       <c r="I10">
-        <v>0.3276463421155749</v>
+        <v>0.4501916892314303</v>
       </c>
       <c r="J10">
-        <v>0.3276463421155749</v>
+        <v>0.4501916892314304</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.58086433333333</v>
+        <v>46.34761033333334</v>
       </c>
       <c r="N10">
-        <v>73.742593</v>
+        <v>139.042831</v>
       </c>
       <c r="O10">
-        <v>0.4026831240869028</v>
+        <v>0.5496549969164365</v>
       </c>
       <c r="P10">
-        <v>0.4026831240869028</v>
+        <v>0.5496549969164366</v>
       </c>
       <c r="Q10">
-        <v>270.5336170806315</v>
+        <v>616.2669023928825</v>
       </c>
       <c r="R10">
-        <v>2434.802553725684</v>
+        <v>5546.402121535943</v>
       </c>
       <c r="S10">
-        <v>0.1319376526387459</v>
+        <v>0.2474501115563072</v>
       </c>
       <c r="T10">
-        <v>0.1319376526387458</v>
+        <v>0.2474501115563073</v>
       </c>
     </row>
   </sheetData>
